--- a/COT_REPORT.xlsx
+++ b/COT_REPORT.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:AJ52"/>
+  <dimension ref="A7:AJ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,53 +424,53 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78341</v>
+        <v>69000</v>
       </c>
       <c r="C7" t="n">
-        <v>-36513</v>
+        <v>-24608</v>
       </c>
       <c r="D7" t="n">
-        <v>563</v>
+        <v>9700</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20914</t>
+          <t>22196</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1816</t>
+          <t>+5795</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>22.6%</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-2866</v>
+        <v>1282</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>57427</t>
+          <t>46804</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-2379</t>
+          <t>-3905</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>56.8%</t>
+          <t>47.6%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>-2464</v>
+        <v>-10623</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -478,49 +478,49 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>38827</v>
+        <v>35753</v>
       </c>
       <c r="O7" t="n">
-        <v>-19217</v>
+        <v>-12665</v>
       </c>
       <c r="P7" t="n">
-        <v>632</v>
+        <v>3626</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>9805</t>
+          <t>11544</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-3332</t>
+          <t>+3448</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>9.7%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-1580</v>
+        <v>1739</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>29022</t>
+          <t>24209</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-3964</t>
+          <t>-178</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>28.7%</t>
+          <t>24.6%</t>
         </is>
       </c>
       <c r="X7" t="n">
-        <v>-2821</v>
+        <v>-4813</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -528,101 +528,101 @@
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>92966</v>
+        <v>98499</v>
       </c>
       <c r="AA7" t="n">
-        <v>41796</v>
+        <v>29427</v>
       </c>
       <c r="AB7" t="n">
-        <v>-763</v>
+        <v>-9962</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>67381</t>
+          <t>63963</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-1358</t>
+          <t>-2419</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="AF7" t="n">
-        <v>-1309</v>
+        <v>-3418</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>25585</t>
+          <t>34536</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-595</t>
+          <t>+7543</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>25.3%</t>
+          <t>35.1%</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>-2484</v>
+        <v>8951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82536</v>
+        <v>67110</v>
       </c>
       <c r="C8" t="n">
-        <v>-37076</v>
+        <v>-34308</v>
       </c>
       <c r="D8" t="n">
-        <v>-965</v>
+        <v>2205</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22730</t>
+          <t>16401</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1050</t>
+          <t>-4513</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22.0%</t>
+          <t>17.4%</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-2429</v>
+        <v>-6329</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>59806</t>
+          <t>50709</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-6718</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>57.9%</t>
+          <t>53.7%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>-1313</v>
+        <v>-9097</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -630,49 +630,49 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>46123</v>
+        <v>32483</v>
       </c>
       <c r="O8" t="n">
-        <v>-19849</v>
+        <v>-16291</v>
       </c>
       <c r="P8" t="n">
-        <v>609</v>
+        <v>2926</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13137</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>+1752</t>
+          <t>-1709</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12.7%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2209</v>
+        <v>-5041</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>32986</t>
+          <t>24387</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>+1143</t>
+          <t>-4635</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>31.9%</t>
+          <t>25.8%</t>
         </is>
       </c>
       <c r="X8" t="n">
-        <v>-2419</v>
+        <v>-8599</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -680,101 +680,101 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>94919</v>
+        <v>93375</v>
       </c>
       <c r="AA8" t="n">
-        <v>42559</v>
+        <v>39389</v>
       </c>
       <c r="AB8" t="n">
-        <v>1938</v>
+        <v>-2407</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>68739</t>
+          <t>66382</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>+49</t>
+          <t>-999</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>66.5%</t>
+          <t>70.2%</t>
         </is>
       </c>
       <c r="AF8" t="n">
-        <v>705</v>
+        <v>-2357</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>26180</t>
+          <t>26993</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>-1889</t>
+          <t>+1408</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>25.3%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>-2205</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83671</v>
+        <v>78341</v>
       </c>
       <c r="C9" t="n">
-        <v>-36111</v>
+        <v>-36513</v>
       </c>
       <c r="D9" t="n">
-        <v>-151</v>
+        <v>563</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23780</t>
+          <t>20914</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1379</t>
+          <t>-1816</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22.9%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5619</v>
+        <v>-2866</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>59891</t>
+          <t>57427</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-1228</t>
+          <t>-2379</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>57.6%</t>
+          <t>56.8%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6519</v>
+        <v>-2464</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -782,49 +782,49 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>43228</v>
+        <v>38827</v>
       </c>
       <c r="O9" t="n">
-        <v>-20458</v>
+        <v>-19217</v>
       </c>
       <c r="P9" t="n">
-        <v>4019</v>
+        <v>632</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>11385</t>
+          <t>9805</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>+457</t>
+          <t>-3332</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11.0%</t>
+          <t>9.7%</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1579</v>
+        <v>-1580</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>31843</t>
+          <t>29022</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-3562</t>
+          <t>-3964</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>30.6%</t>
+          <t>28.7%</t>
         </is>
       </c>
       <c r="X9" t="n">
-        <v>-593</v>
+        <v>-2821</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
@@ -832,101 +832,101 @@
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>96759</v>
+        <v>92966</v>
       </c>
       <c r="AA9" t="n">
-        <v>40621</v>
+        <v>41796</v>
       </c>
       <c r="AB9" t="n">
-        <v>972</v>
+        <v>-763</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>68690</t>
+          <t>67381</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>+656</t>
+          <t>-1358</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>66.1%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="AF9" t="n">
-        <v>1475</v>
+        <v>-1309</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>28069</t>
+          <t>25585</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>-595</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>25.3%</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>1110</v>
+        <v>-2484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86278</v>
+        <v>82536</v>
       </c>
       <c r="C10" t="n">
-        <v>-35960</v>
+        <v>-37076</v>
       </c>
       <c r="D10" t="n">
-        <v>-749</v>
+        <v>-965</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25159</t>
+          <t>22730</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>+6998</t>
+          <t>-1050</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24.1%</t>
+          <t>22.0%</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7484</v>
+        <v>-2429</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>61119</t>
+          <t>59806</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>+7747</t>
+          <t>-85</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>58.4%</t>
+          <t>57.9%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>8792</v>
+        <v>-1313</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -934,49 +934,49 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>46333</v>
+        <v>46123</v>
       </c>
       <c r="O10" t="n">
-        <v>-24477</v>
+        <v>-19849</v>
       </c>
       <c r="P10" t="n">
-        <v>-1847</v>
+        <v>609</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>10928</t>
+          <t>13137</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>+1122</t>
+          <t>+1752</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>10.4%</t>
+          <t>12.7%</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2197</v>
+        <v>2209</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>35405</t>
+          <t>32986</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>+2969</t>
+          <t>+1143</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>33.9%</t>
+          <t>31.9%</t>
         </is>
       </c>
       <c r="X10" t="n">
-        <v>1347</v>
+        <v>-2419</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -984,101 +984,101 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>96419</v>
+        <v>94919</v>
       </c>
       <c r="AA10" t="n">
-        <v>39649</v>
+        <v>42559</v>
       </c>
       <c r="AB10" t="n">
-        <v>-607</v>
+        <v>1938</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>68034</t>
+          <t>68739</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>+819</t>
+          <t>+49</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>66.5%</t>
         </is>
       </c>
       <c r="AF10" t="n">
-        <v>2856</v>
+        <v>705</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>28385</t>
+          <t>26180</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>+1426</t>
+          <t>-1889</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>27.1%</t>
+          <t>25.3%</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>420</v>
+        <v>-2205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71533</v>
+        <v>83671</v>
       </c>
       <c r="C11" t="n">
-        <v>-35211</v>
+        <v>-36111</v>
       </c>
       <c r="D11" t="n">
-        <v>-559</v>
+        <v>-151</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18161</t>
+          <t>23780</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>+486</t>
+          <t>-1379</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18.8%</t>
+          <t>22.9%</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-1319</v>
+        <v>5619</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>53372</t>
+          <t>59891</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>+1045</t>
+          <t>-1228</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>57.6%</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1445</v>
+        <v>6519</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1086,49 +1086,49 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>42242</v>
+        <v>43228</v>
       </c>
       <c r="O11" t="n">
-        <v>-22630</v>
+        <v>-20458</v>
       </c>
       <c r="P11" t="n">
-        <v>2697</v>
+        <v>4019</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>9806</t>
+          <t>11385</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>+1075</t>
+          <t>+457</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>11.0%</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-6932</v>
+        <v>1579</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>32436</t>
+          <t>31843</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-1622</t>
+          <t>-3562</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>33.6%</t>
+          <t>30.6%</t>
         </is>
       </c>
       <c r="X11" t="n">
-        <v>-1627</v>
+        <v>-593</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
@@ -1136,101 +1136,101 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>94174</v>
+        <v>96759</v>
       </c>
       <c r="AA11" t="n">
-        <v>40256</v>
+        <v>40621</v>
       </c>
       <c r="AB11" t="n">
-        <v>3043</v>
+        <v>972</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>67215</t>
+          <t>68690</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>+2037</t>
+          <t>+656</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>69.6%</t>
+          <t>66.1%</t>
         </is>
       </c>
       <c r="AF11" t="n">
-        <v>2015</v>
+        <v>1475</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>26959</t>
+          <t>28069</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>-1006</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>27.9%</t>
+          <t>27.0%</t>
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-8692</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70002</v>
+        <v>86278</v>
       </c>
       <c r="C12" t="n">
-        <v>-34652</v>
+        <v>-35960</v>
       </c>
       <c r="D12" t="n">
-        <v>-2205</v>
+        <v>-749</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17675</t>
+          <t>25159</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1805</t>
+          <t>+6998</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-562</v>
+        <v>7484</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>52327</t>
+          <t>61119</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>+400</t>
+          <t>+7747</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>58.4%</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>12472</v>
+        <v>8792</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1238,49 +1238,49 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>42789</v>
+        <v>46333</v>
       </c>
       <c r="O12" t="n">
-        <v>-25327</v>
+        <v>-24477</v>
       </c>
       <c r="P12" t="n">
-        <v>-8002</v>
+        <v>-1847</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>8731</t>
+          <t>10928</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-8007</t>
+          <t>+1122</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>9.2%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>-5228</v>
+        <v>2197</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>34058</t>
+          <t>35405</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>+2969</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>33.9%</t>
         </is>
       </c>
       <c r="X12" t="n">
-        <v>11777</v>
+        <v>1347</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
@@ -1288,101 +1288,101 @@
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>93143</v>
+        <v>96419</v>
       </c>
       <c r="AA12" t="n">
-        <v>37213</v>
+        <v>39649</v>
       </c>
       <c r="AB12" t="n">
-        <v>7664</v>
+        <v>-607</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>65178</t>
+          <t>68034</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>+819</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>68.9%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>7497</v>
+        <v>2856</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>27965</t>
+          <t>28385</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>-7686</t>
+          <t>+1426</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>29.6%</t>
+          <t>27.1%</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-10244</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71407</v>
+        <v>71533</v>
       </c>
       <c r="C13" t="n">
-        <v>-32447</v>
+        <v>-35211</v>
       </c>
       <c r="D13" t="n">
-        <v>-10829</v>
+        <v>-559</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>19480</t>
+          <t>18161</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>+1243</t>
+          <t>+486</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19.3%</t>
+          <t>18.8%</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>464</v>
+        <v>-1319</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>51927</t>
+          <t>53372</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>+12072</t>
+          <t>+1045</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>51.5%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>15142</v>
+        <v>1445</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1390,49 +1390,49 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>50801</v>
+        <v>42242</v>
       </c>
       <c r="O13" t="n">
-        <v>-17325</v>
+        <v>-22630</v>
       </c>
       <c r="P13" t="n">
-        <v>-9003</v>
+        <v>2697</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>16738</t>
+          <t>9806</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>+2779</t>
+          <t>+1075</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>16.6%</t>
+          <t>10.2%</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6376</v>
+        <v>-6932</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>34063</t>
+          <t>32436</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>+11782</t>
+          <t>-1622</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>33.6%</t>
         </is>
       </c>
       <c r="X13" t="n">
-        <v>19326</v>
+        <v>-1627</v>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
@@ -1440,101 +1440,101 @@
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>100851</v>
+        <v>94174</v>
       </c>
       <c r="AA13" t="n">
-        <v>29549</v>
+        <v>40256</v>
       </c>
       <c r="AB13" t="n">
-        <v>10077</v>
+        <v>3043</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>65200</t>
+          <t>67215</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>+7519</t>
+          <t>+2037</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>64.7%</t>
+          <t>69.6%</t>
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>13089</v>
+        <v>2015</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>35651</t>
+          <t>26959</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>-2558</t>
+          <t>-1006</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>35.4%</t>
+          <t>27.9%</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>827</v>
+        <v>-8692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58092</v>
+        <v>70002</v>
       </c>
       <c r="C14" t="n">
-        <v>-21618</v>
+        <v>-34652</v>
       </c>
       <c r="D14" t="n">
-        <v>-3849</v>
+        <v>-2205</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18237</t>
+          <t>17675</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-779</t>
+          <t>-1805</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19.7%</t>
+          <t>18.7%</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-4551</v>
+        <v>-562</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>39855</t>
+          <t>52327</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>+3070</t>
+          <t>+400</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>43.1%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4167</v>
+        <v>12472</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1542,49 +1542,49 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>36240</v>
+        <v>42789</v>
       </c>
       <c r="O14" t="n">
-        <v>-8322</v>
+        <v>-25327</v>
       </c>
       <c r="P14" t="n">
-        <v>-3947</v>
+        <v>-8002</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13959</t>
+          <t>8731</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>+3597</t>
+          <t>-8007</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>9.2%</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3978</v>
+        <v>-5228</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22281</t>
+          <t>34058</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>+7544</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>24.1%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="X14" t="n">
-        <v>-2037</v>
+        <v>11777</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
@@ -1592,101 +1592,101 @@
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>95890</v>
+        <v>93143</v>
       </c>
       <c r="AA14" t="n">
-        <v>19472</v>
+        <v>37213</v>
       </c>
       <c r="AB14" t="n">
-        <v>2185</v>
+        <v>7664</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>57681</t>
+          <t>65178</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>+5570</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>62.3%</t>
+          <t>68.9%</t>
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>-2950</v>
+        <v>7497</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>38209</t>
+          <t>27965</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>+3385</t>
+          <t>-7686</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>41.3%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>-9985</v>
+        <v>-10244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55801</v>
+        <v>71407</v>
       </c>
       <c r="C15" t="n">
-        <v>-17769</v>
+        <v>-32447</v>
       </c>
       <c r="D15" t="n">
-        <v>-4869</v>
+        <v>-10829</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19016</t>
+          <t>19480</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-3772</t>
+          <t>+1243</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21.9%</t>
+          <t>19.3%</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-3229</v>
+        <v>464</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>36785</t>
+          <t>51927</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>+1097</t>
+          <t>+12072</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>51.5%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2816</v>
+        <v>15142</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>25099</v>
+        <v>50801</v>
       </c>
       <c r="O15" t="n">
-        <v>-4375</v>
+        <v>-17325</v>
       </c>
       <c r="P15" t="n">
-        <v>9962</v>
+        <v>-9003</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10362</t>
+          <t>16738</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>+381</t>
+          <t>+2779</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11.9%</t>
+          <t>16.6%</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2090</v>
+        <v>6376</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>14737</t>
+          <t>34063</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-9581</t>
+          <t>+11782</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>16.9%</t>
+          <t>33.8%</t>
         </is>
       </c>
       <c r="X15" t="n">
-        <v>-8750</v>
+        <v>19326</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
@@ -1744,101 +1744,101 @@
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>86935</v>
+        <v>100851</v>
       </c>
       <c r="AA15" t="n">
-        <v>17287</v>
+        <v>29549</v>
       </c>
       <c r="AB15" t="n">
-        <v>4850</v>
+        <v>10077</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>52111</t>
+          <t>65200</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-8520</t>
+          <t>+7519</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>59.9%</t>
+          <t>64.7%</t>
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>-1754</v>
+        <v>13089</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>34824</t>
+          <t>35651</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>-13370</t>
+          <t>-2558</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>35.4%</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>-8818</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58476</v>
+        <v>58092</v>
       </c>
       <c r="C16" t="n">
-        <v>-12900</v>
+        <v>-21618</v>
       </c>
       <c r="D16" t="n">
-        <v>-1176</v>
+        <v>-3849</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>22788</t>
+          <t>18237</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>+543</t>
+          <t>-779</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22.1%</t>
+          <t>19.7%</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-2437</v>
+        <v>-4551</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>35688</t>
+          <t>39855</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>+1719</t>
+          <t>+3070</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>34.7%</t>
+          <t>43.1%</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>463</v>
+        <v>4167</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1846,49 +1846,49 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>34299</v>
+        <v>36240</v>
       </c>
       <c r="O16" t="n">
-        <v>-14337</v>
+        <v>-8322</v>
       </c>
       <c r="P16" t="n">
-        <v>878</v>
+        <v>-3947</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>9981</t>
+          <t>13959</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>+1709</t>
+          <t>+3597</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>9.7%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>-1736</v>
+        <v>3978</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>24318</t>
+          <t>22281</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>+831</t>
+          <t>+7544</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>23.6%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="X16" t="n">
-        <v>-226</v>
+        <v>-2037</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
@@ -1896,101 +1896,101 @@
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>108825</v>
+        <v>95890</v>
       </c>
       <c r="AA16" t="n">
-        <v>12437</v>
+        <v>19472</v>
       </c>
       <c r="AB16" t="n">
-        <v>2214</v>
+        <v>2185</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>60631</t>
+          <t>57681</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>+6766</t>
+          <t>+5570</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>58.9%</t>
+          <t>62.3%</t>
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>5694</v>
+        <v>-2950</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>48194</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>+4552</t>
+          <t>+3385</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>1435</v>
+        <v>-9985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56214</v>
+        <v>55801</v>
       </c>
       <c r="C17" t="n">
-        <v>-11724</v>
+        <v>-17769</v>
       </c>
       <c r="D17" t="n">
-        <v>-1724</v>
+        <v>-4869</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22245</t>
+          <t>19016</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-2980</t>
+          <t>-3772</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23.7%</t>
+          <t>21.9%</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-681</v>
+        <v>-3229</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>33969</t>
+          <t>36785</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-1256</t>
+          <t>+1097</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>42.3%</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>-3675</v>
+        <v>2816</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1998,49 +1998,49 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>31759</v>
+        <v>25099</v>
       </c>
       <c r="O17" t="n">
-        <v>-15215</v>
+        <v>-4375</v>
       </c>
       <c r="P17" t="n">
-        <v>-2388</v>
+        <v>9962</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>8272</t>
+          <t>10362</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-3445</t>
+          <t>+381</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>11.9%</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>-2932</v>
+        <v>2090</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23487</t>
+          <t>14737</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-1057</t>
+          <t>-9581</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.9%</t>
         </is>
       </c>
       <c r="X17" t="n">
-        <v>1846</v>
+        <v>-8750</v>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
@@ -2048,101 +2048,101 @@
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>97507</v>
+        <v>86935</v>
       </c>
       <c r="AA17" t="n">
-        <v>10223</v>
+        <v>17287</v>
       </c>
       <c r="AB17" t="n">
-        <v>2045</v>
+        <v>4850</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>53865</t>
+          <t>52111</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>-1072</t>
+          <t>-8520</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>57.3%</t>
+          <t>59.9%</t>
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>-1457</v>
+        <v>-1754</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>43642</t>
+          <t>34824</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>-3117</t>
+          <t>-13370</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>46.5%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>273</v>
+        <v>-8818</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60450</v>
+        <v>58476</v>
       </c>
       <c r="C18" t="n">
-        <v>-10000</v>
+        <v>-12900</v>
       </c>
       <c r="D18" t="n">
-        <v>4718</v>
+        <v>-1176</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25225</t>
+          <t>22788</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>+2299</t>
+          <t>+543</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>22.1%</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-7032</v>
+        <v>-2437</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>35225</t>
+          <t>35688</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-2419</t>
+          <t>+1719</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>36.3%</t>
+          <t>34.7%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>-253</v>
+        <v>463</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2150,49 +2150,49 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>36261</v>
+        <v>34299</v>
       </c>
       <c r="O18" t="n">
-        <v>-12827</v>
+        <v>-14337</v>
       </c>
       <c r="P18" t="n">
-        <v>-2390</v>
+        <v>878</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>11717</t>
+          <t>9981</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>+513</t>
+          <t>+1709</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>12.1%</t>
+          <t>9.7%</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>-6184</v>
+        <v>-1736</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>24544</t>
+          <t>24318</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>+2903</t>
+          <t>+831</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>25.3%</t>
+          <t>23.6%</t>
         </is>
       </c>
       <c r="X18" t="n">
-        <v>6297</v>
+        <v>-226</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
@@ -2200,101 +2200,101 @@
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>101696</v>
+        <v>108825</v>
       </c>
       <c r="AA18" t="n">
-        <v>8178</v>
+        <v>12437</v>
       </c>
       <c r="AB18" t="n">
-        <v>-3775</v>
+        <v>2214</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>54937</t>
+          <t>60631</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>+6766</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>58.9%</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>1028</v>
+        <v>5694</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>46759</t>
+          <t>48194</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>+3390</t>
+          <t>+4552</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>48.2%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>-4271</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60570</v>
+        <v>56214</v>
       </c>
       <c r="C19" t="n">
-        <v>-14718</v>
+        <v>-11724</v>
       </c>
       <c r="D19" t="n">
-        <v>-11497</v>
+        <v>-1724</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22926</t>
+          <t>22245</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-9331</t>
+          <t>-2980</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23.6%</t>
+          <t>23.7%</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-10101</v>
+        <v>-681</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>37644</t>
+          <t>33969</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>+2166</t>
+          <t>-1256</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>38.7%</t>
+          <t>36.2%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>8648</v>
+        <v>-3675</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2302,49 +2302,49 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>32845</v>
+        <v>31759</v>
       </c>
       <c r="O19" t="n">
-        <v>-10437</v>
+        <v>-15215</v>
       </c>
       <c r="P19" t="n">
-        <v>-10091</v>
+        <v>-2388</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>11204</t>
+          <t>8272</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-6697</t>
+          <t>-3445</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>8.8%</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>-18822</v>
+        <v>-2932</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>21641</t>
+          <t>23487</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>+3394</t>
+          <t>-1057</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>22.3%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="X19" t="n">
-        <v>3062</v>
+        <v>1846</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
@@ -2352,101 +2352,101 @@
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>98691</v>
+        <v>97507</v>
       </c>
       <c r="AA19" t="n">
-        <v>11953</v>
+        <v>10223</v>
       </c>
       <c r="AB19" t="n">
-        <v>9074</v>
+        <v>2045</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>55322</t>
+          <t>53865</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>+1413</t>
+          <t>-1072</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>56.9%</t>
+          <t>57.3%</t>
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>629</v>
+        <v>-1457</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>43369</t>
+          <t>43642</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>-7661</t>
+          <t>-3117</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-13791</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67735</v>
+        <v>60450</v>
       </c>
       <c r="C20" t="n">
-        <v>-3221</v>
+        <v>-10000</v>
       </c>
       <c r="D20" t="n">
-        <v>-7252</v>
+        <v>4718</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32257</t>
+          <t>25225</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-770</t>
+          <t>+2299</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31.0%</t>
+          <t>26.0%</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-3462</v>
+        <v>-7032</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>35478</t>
+          <t>35225</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>+6482</t>
+          <t>-2419</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>34.0%</t>
+          <t>36.3%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1339</v>
+        <v>-253</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2454,49 +2454,49 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>36148</v>
+        <v>36261</v>
       </c>
       <c r="O20" t="n">
-        <v>-346</v>
+        <v>-12827</v>
       </c>
       <c r="P20" t="n">
-        <v>-11793</v>
+        <v>-2390</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>17901</t>
+          <t>11717</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-12125</t>
+          <t>+513</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>12.1%</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>-15594</v>
+        <v>-6184</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>18247</t>
+          <t>24544</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-332</t>
+          <t>+2903</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>25.3%</t>
         </is>
       </c>
       <c r="X20" t="n">
-        <v>-11132</v>
+        <v>6297</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
@@ -2504,101 +2504,101 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>104939</v>
+        <v>101696</v>
       </c>
       <c r="AA20" t="n">
-        <v>2879</v>
+        <v>8178</v>
       </c>
       <c r="AB20" t="n">
-        <v>5346</v>
+        <v>-3775</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>53909</t>
+          <t>54937</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>-784</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>51.7%</t>
+          <t>56.7%</t>
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>-3340</v>
+        <v>1028</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>51030</t>
+          <t>46759</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>-6130</t>
+          <t>+3390</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>49.0%</t>
+          <t>48.2%</t>
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>-7675</v>
+        <v>-4271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62023</v>
+        <v>60570</v>
       </c>
       <c r="C21" t="n">
-        <v>4031</v>
+        <v>-14718</v>
       </c>
       <c r="D21" t="n">
-        <v>2451</v>
+        <v>-11497</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>33027</t>
+          <t>22926</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-2692</t>
+          <t>-9331</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31.0%</t>
+          <t>23.6%</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-2418</v>
+        <v>-10101</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>28996</t>
+          <t>37644</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-5143</t>
+          <t>+2166</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>27.2%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>-5033</v>
+        <v>8648</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2606,49 +2606,49 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>48605</v>
+        <v>32845</v>
       </c>
       <c r="O21" t="n">
-        <v>11447</v>
+        <v>-10437</v>
       </c>
       <c r="P21" t="n">
-        <v>7331</v>
+        <v>-10091</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>30026</t>
+          <t>11204</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-3469</t>
+          <t>-6697</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>-28</v>
+        <v>-18822</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>18579</t>
+          <t>21641</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-10800</t>
+          <t>+3394</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>17.4%</t>
+          <t>22.3%</t>
         </is>
       </c>
       <c r="X21" t="n">
-        <v>-12095</v>
+        <v>3062</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
@@ -2656,101 +2656,101 @@
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>111853</v>
+        <v>98691</v>
       </c>
       <c r="AA21" t="n">
-        <v>-2467</v>
+        <v>11953</v>
       </c>
       <c r="AB21" t="n">
-        <v>-1011</v>
+        <v>9074</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>54693</t>
+          <t>55322</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>-2556</t>
+          <t>+1413</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>51.3%</t>
+          <t>56.9%</t>
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>-2431</v>
+        <v>629</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>57160</t>
+          <t>43369</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>-1545</t>
+          <t>-7661</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>53.6%</t>
+          <t>44.6%</t>
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>270</v>
+        <v>-13791</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69858</v>
+        <v>67735</v>
       </c>
       <c r="C22" t="n">
-        <v>1580</v>
+        <v>-3221</v>
       </c>
       <c r="D22" t="n">
-        <v>164</v>
+        <v>-7252</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>35719</t>
+          <t>32257</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>+274</t>
+          <t>-770</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6010</v>
+        <v>-3462</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>34139</t>
+          <t>35478</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>+110</t>
+          <t>+6482</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>34.0%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>-2711</v>
+        <v>1339</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2758,49 +2758,49 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>62874</v>
+        <v>36148</v>
       </c>
       <c r="O22" t="n">
-        <v>4116</v>
+        <v>-346</v>
       </c>
       <c r="P22" t="n">
-        <v>4736</v>
+        <v>-11793</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>33495</t>
+          <t>17901</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>+3441</t>
+          <t>-12125</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>29.6%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>13412</v>
+        <v>-15594</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29379</t>
+          <t>18247</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-1295</t>
+          <t>-332</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
       <c r="X22" t="n">
-        <v>2486</v>
+        <v>-11132</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
@@ -2808,101 +2808,101 @@
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>115954</v>
+        <v>104939</v>
       </c>
       <c r="AA22" t="n">
-        <v>-1456</v>
+        <v>2879</v>
       </c>
       <c r="AB22" t="n">
-        <v>-1690</v>
+        <v>5346</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>57249</t>
+          <t>53909</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>+125</t>
+          <t>-784</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>50.6%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="AF22" t="n">
-        <v>1491</v>
+        <v>-3340</v>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>58705</t>
+          <t>51030</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>+1815</t>
+          <t>-6130</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>49.0%</t>
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>9896</v>
+        <v>-7675</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69474</v>
+        <v>62023</v>
       </c>
       <c r="C23" t="n">
-        <v>1416</v>
+        <v>4031</v>
       </c>
       <c r="D23" t="n">
-        <v>8557</v>
+        <v>2451</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35445</t>
+          <t>33027</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>+5736</t>
+          <t>-2692</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31.7%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12240</v>
+        <v>-2418</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>34029</t>
+          <t>28996</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-2821</t>
+          <t>-5143</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>30.4%</t>
+          <t>27.2%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>-7761</v>
+        <v>-5033</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2910,49 +2910,49 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>60728</v>
+        <v>48605</v>
       </c>
       <c r="O23" t="n">
-        <v>-620</v>
+        <v>11447</v>
       </c>
       <c r="P23" t="n">
-        <v>6190</v>
+        <v>7331</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>30054</t>
+          <t>30026</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>+9971</t>
+          <t>-3469</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>26.8%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>12100</v>
+        <v>-28</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>30674</t>
+          <t>18579</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>+3781</t>
+          <t>-10800</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>27.4%</t>
+          <t>17.4%</t>
         </is>
       </c>
       <c r="X23" t="n">
-        <v>9131</v>
+        <v>-12095</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
@@ -2960,101 +2960,101 @@
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>114014</v>
+        <v>111853</v>
       </c>
       <c r="AA23" t="n">
-        <v>234</v>
+        <v>-2467</v>
       </c>
       <c r="AB23" t="n">
-        <v>-6715</v>
+        <v>-1011</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>57124</t>
+          <t>54693</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>+1366</t>
+          <t>-2556</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>51.0%</t>
+          <t>51.3%</t>
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>-4534</v>
+        <v>-2431</v>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>56890</t>
+          <t>57160</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>+8081</t>
+          <t>-1545</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>50.8%</t>
+          <t>53.6%</t>
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>16557</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66559</v>
+        <v>69858</v>
       </c>
       <c r="C24" t="n">
-        <v>-7141</v>
+        <v>1580</v>
       </c>
       <c r="D24" t="n">
-        <v>11444</v>
+        <v>164</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29709</t>
+          <t>35719</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>+6504</t>
+          <t>+274</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29.1%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5476</v>
+        <v>6010</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>36850</t>
+          <t>34139</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-4940</t>
+          <t>+110</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>-465</v>
+        <v>-2711</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -3062,49 +3062,49 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>46976</v>
+        <v>62874</v>
       </c>
       <c r="O24" t="n">
-        <v>-6810</v>
+        <v>4116</v>
       </c>
       <c r="P24" t="n">
-        <v>-3221</v>
+        <v>4736</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20083</t>
+          <t>33495</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>+2129</t>
+          <t>+3441</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19.6%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>124</v>
+        <v>13412</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26893</t>
+          <t>29379</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>+5350</t>
+          <t>-1295</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>26.3%</t>
+          <t>26.0%</t>
         </is>
       </c>
       <c r="X24" t="n">
-        <v>6497</v>
+        <v>2486</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
@@ -3112,101 +3112,101 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>104567</v>
+        <v>115954</v>
       </c>
       <c r="AA24" t="n">
-        <v>6949</v>
+        <v>-1456</v>
       </c>
       <c r="AB24" t="n">
-        <v>-14376</v>
+        <v>-1690</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>55758</t>
+          <t>57249</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-5900</t>
+          <t>+125</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="AF24" t="n">
-        <v>-1645</v>
+        <v>1491</v>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>48809</t>
+          <t>58705</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>+8476</t>
+          <t>+1815</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>47.7%</t>
+          <t>51.9%</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>5642</v>
+        <v>9896</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64995</v>
+        <v>69474</v>
       </c>
       <c r="C25" t="n">
-        <v>-18585</v>
+        <v>1416</v>
       </c>
       <c r="D25" t="n">
-        <v>-5503</v>
+        <v>8557</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23205</t>
+          <t>35445</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-1028</t>
+          <t>+5736</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23.7%</t>
+          <t>31.7%</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2166</v>
+        <v>12240</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>41790</t>
+          <t>34029</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>+4475</t>
+          <t>-2821</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>42.7%</t>
+          <t>30.4%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1829</v>
+        <v>-7761</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -3214,49 +3214,49 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>39497</v>
+        <v>60728</v>
       </c>
       <c r="O25" t="n">
-        <v>-3589</v>
+        <v>-620</v>
       </c>
       <c r="P25" t="n">
-        <v>-3152</v>
+        <v>6190</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>17954</t>
+          <t>30054</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-2005</t>
+          <t>+9971</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>26.8%</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>709</v>
+        <v>12100</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>21543</t>
+          <t>30674</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>+1147</t>
+          <t>+3781</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>22.0%</t>
+          <t>27.4%</t>
         </is>
       </c>
       <c r="X25" t="n">
-        <v>1905</v>
+        <v>9131</v>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
@@ -3264,101 +3264,101 @@
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>101991</v>
+        <v>114014</v>
       </c>
       <c r="AA25" t="n">
-        <v>21325</v>
+        <v>234</v>
       </c>
       <c r="AB25" t="n">
-        <v>7089</v>
+        <v>-6715</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>61658</t>
+          <t>57124</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>+4255</t>
+          <t>+1366</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>63.1%</t>
+          <t>51.0%</t>
         </is>
       </c>
       <c r="AF25" t="n">
-        <v>2823</v>
+        <v>-4534</v>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>40333</t>
+          <t>56890</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>-2834</t>
+          <t>+8081</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>50.8%</t>
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>1646</v>
+        <v>16557</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61548</v>
+        <v>66559</v>
       </c>
       <c r="C26" t="n">
-        <v>-13082</v>
+        <v>-7141</v>
       </c>
       <c r="D26" t="n">
-        <v>5840</v>
+        <v>11444</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24233</t>
+          <t>29709</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>+3194</t>
+          <t>+6504</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25.5%</t>
+          <t>29.1%</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4898</v>
+        <v>5476</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>37315</t>
+          <t>36850</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-2646</t>
+          <t>-4940</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2121</v>
+        <v>-465</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -3366,49 +3366,49 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>40355</v>
+        <v>46976</v>
       </c>
       <c r="O26" t="n">
-        <v>-437</v>
+        <v>-6810</v>
       </c>
       <c r="P26" t="n">
-        <v>1956</v>
+        <v>-3221</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>19959</t>
+          <t>20083</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>+2714</t>
+          <t>+2129</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>21.0%</t>
+          <t>19.6%</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2219</v>
+        <v>124</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>20396</t>
+          <t>26893</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>+758</t>
+          <t>+5350</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>21.4%</t>
+          <t>26.3%</t>
         </is>
       </c>
       <c r="X26" t="n">
-        <v>-1181</v>
+        <v>6497</v>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
@@ -3416,101 +3416,101 @@
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>100570</v>
+        <v>104567</v>
       </c>
       <c r="AA26" t="n">
-        <v>14236</v>
+        <v>6949</v>
       </c>
       <c r="AB26" t="n">
-        <v>-5912</v>
+        <v>-14376</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>57403</t>
+          <t>55758</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-1432</t>
+          <t>-5900</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>60.3%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>2605</v>
+        <v>-1645</v>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>43167</t>
+          <t>48809</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>+4480</t>
+          <t>+8476</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>45.4%</t>
+          <t>47.7%</t>
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>4822</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>61000</v>
+        <v>64995</v>
       </c>
       <c r="C27" t="n">
-        <v>-18922</v>
+        <v>-18585</v>
       </c>
       <c r="D27" t="n">
-        <v>-3063</v>
+        <v>-5503</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21039</t>
+          <t>23205</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>+1704</t>
+          <t>-1028</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22.7%</t>
+          <t>23.7%</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1973</v>
+        <v>2166</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>39961</t>
+          <t>41790</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>+4767</t>
+          <t>+4475</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>43.2%</t>
+          <t>42.7%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5315</v>
+        <v>1829</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3518,49 +3518,49 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>36883</v>
+        <v>39497</v>
       </c>
       <c r="O27" t="n">
-        <v>-2393</v>
+        <v>-3589</v>
       </c>
       <c r="P27" t="n">
-        <v>1444</v>
+        <v>-3152</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>17245</t>
+          <t>17954</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-495</t>
+          <t>-2005</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2250</v>
+        <v>709</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>19638</t>
+          <t>21543</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-1939</t>
+          <t>+1147</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>21.2%</t>
+          <t>22.0%</t>
         </is>
       </c>
       <c r="X27" t="n">
-        <v>-5483</v>
+        <v>1905</v>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
@@ -3568,101 +3568,101 @@
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>97522</v>
+        <v>101991</v>
       </c>
       <c r="AA27" t="n">
-        <v>20148</v>
+        <v>21325</v>
       </c>
       <c r="AB27" t="n">
-        <v>3695</v>
+        <v>7089</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>58835</t>
+          <t>61658</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>+4037</t>
+          <t>+4255</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>63.1%</t>
         </is>
       </c>
       <c r="AF27" t="n">
-        <v>-5874</v>
+        <v>2823</v>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>38687</t>
+          <t>40333</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>+342</t>
+          <t>-2834</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>41.8%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>-10976</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54529</v>
+        <v>61548</v>
       </c>
       <c r="C28" t="n">
-        <v>-15859</v>
+        <v>-13082</v>
       </c>
       <c r="D28" t="n">
-        <v>-279</v>
+        <v>5840</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>19335</t>
+          <t>24233</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>+269</t>
+          <t>+3194</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22.0%</t>
+          <t>25.5%</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-535</v>
+        <v>4898</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>35194</t>
+          <t>37315</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>+548</t>
+          <t>-2646</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>-7428</v>
+        <v>2121</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>39317</v>
+        <v>40355</v>
       </c>
       <c r="O28" t="n">
-        <v>-3837</v>
+        <v>-437</v>
       </c>
       <c r="P28" t="n">
-        <v>6289</v>
+        <v>1956</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>17740</t>
+          <t>19959</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>+2745</t>
+          <t>+2714</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>20.2%</t>
+          <t>21.0%</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>-778</v>
+        <v>2219</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>21577</t>
+          <t>20396</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-3544</t>
+          <t>+758</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="X28" t="n">
-        <v>-4325</v>
+        <v>-1181</v>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
@@ -3720,101 +3720,101 @@
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>93143</v>
+        <v>100570</v>
       </c>
       <c r="AA28" t="n">
-        <v>16453</v>
+        <v>14236</v>
       </c>
       <c r="AB28" t="n">
-        <v>1407</v>
+        <v>-5912</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>54798</t>
+          <t>57403</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-9911</t>
+          <t>-1432</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>62.3%</t>
+          <t>60.3%</t>
         </is>
       </c>
       <c r="AF28" t="n">
-        <v>-7704</v>
+        <v>2605</v>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>38345</t>
+          <t>43167</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>-11318</t>
+          <t>+4480</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>43.6%</t>
+          <t>45.4%</t>
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>-2597</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53712</v>
+        <v>61000</v>
       </c>
       <c r="C29" t="n">
-        <v>-15580</v>
+        <v>-18922</v>
       </c>
       <c r="D29" t="n">
-        <v>7172</v>
+        <v>-3063</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19066</t>
+          <t>21039</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-804</t>
+          <t>+1704</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-2018</v>
+        <v>1973</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>34646</t>
+          <t>39961</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-7976</t>
+          <t>+4767</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>33.5%</t>
+          <t>43.2%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>-8016</v>
+        <v>5315</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3822,49 +3822,49 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>40116</v>
+        <v>36883</v>
       </c>
       <c r="O29" t="n">
-        <v>-10126</v>
+        <v>-2393</v>
       </c>
       <c r="P29" t="n">
-        <v>-2742</v>
+        <v>1444</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14995</t>
+          <t>17245</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-3523</t>
+          <t>-495</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>14.5%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>-2761</v>
+        <v>2250</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25121</t>
+          <t>19638</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-781</t>
+          <t>-1939</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>24.3%</t>
+          <t>21.2%</t>
         </is>
       </c>
       <c r="X29" t="n">
-        <v>-1435</v>
+        <v>-5483</v>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
@@ -3872,101 +3872,101 @@
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>114372</v>
+        <v>97522</v>
       </c>
       <c r="AA29" t="n">
-        <v>15046</v>
+        <v>20148</v>
       </c>
       <c r="AB29" t="n">
-        <v>-6514</v>
+        <v>3695</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>64709</t>
+          <t>58835</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>+2207</t>
+          <t>+4037</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>63.6%</t>
         </is>
       </c>
       <c r="AF29" t="n">
-        <v>6598</v>
+        <v>-5874</v>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>49663</t>
+          <t>38687</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>+8721</t>
+          <t>+342</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>41.8%</t>
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>13901</v>
+        <v>-10976</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62492</v>
+        <v>54529</v>
       </c>
       <c r="C30" t="n">
-        <v>-22752</v>
+        <v>-15859</v>
       </c>
       <c r="D30" t="n">
-        <v>-1174</v>
+        <v>-279</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19870</t>
+          <t>19335</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-1214</t>
+          <t>+269</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>22.0%</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-2196</v>
+        <v>-535</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>42622</t>
+          <t>35194</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>+548</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>42.4%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>-2176</v>
+        <v>-7428</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3974,49 +3974,49 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>44420</v>
+        <v>39317</v>
       </c>
       <c r="O30" t="n">
-        <v>-7384</v>
+        <v>-3837</v>
       </c>
       <c r="P30" t="n">
-        <v>1416</v>
+        <v>6289</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>18518</t>
+          <t>17740</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>+762</t>
+          <t>+2745</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>20.2%</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>245</v>
+        <v>-778</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>25902</t>
+          <t>21577</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-654</t>
+          <t>-3544</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>25.8%</t>
+          <t>24.5%</t>
         </is>
       </c>
       <c r="X30" t="n">
-        <v>112</v>
+        <v>-4325</v>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
@@ -4024,101 +4024,101 @@
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>103444</v>
+        <v>93143</v>
       </c>
       <c r="AA30" t="n">
-        <v>21560</v>
+        <v>16453</v>
       </c>
       <c r="AB30" t="n">
-        <v>-789</v>
+        <v>1407</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>62502</t>
+          <t>54798</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>+4391</t>
+          <t>-9911</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>62.1%</t>
+          <t>62.3%</t>
         </is>
       </c>
       <c r="AF30" t="n">
-        <v>3915</v>
+        <v>-7704</v>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>40942</t>
+          <t>38345</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>+5180</t>
+          <t>-11318</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>43.6%</t>
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>8345</v>
+        <v>-2597</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63746</v>
+        <v>53712</v>
       </c>
       <c r="C31" t="n">
-        <v>-21578</v>
+        <v>-15580</v>
       </c>
       <c r="D31" t="n">
-        <v>1154</v>
+        <v>7172</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21084</t>
+          <t>19066</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-982</t>
+          <t>-804</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22.2%</t>
+          <t>18.5%</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-3401</v>
+        <v>-2018</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>42662</t>
+          <t>34646</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-2136</t>
+          <t>-7976</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>44.9%</t>
+          <t>33.5%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>-3468</v>
+        <v>-8016</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -4126,49 +4126,49 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>44312</v>
+        <v>40116</v>
       </c>
       <c r="O31" t="n">
-        <v>-8800</v>
+        <v>-10126</v>
       </c>
       <c r="P31" t="n">
-        <v>-1283</v>
+        <v>-2742</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>17756</t>
+          <t>14995</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-3523</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>18.7%</t>
+          <t>14.5%</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>526</v>
+        <v>-2761</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>26556</t>
+          <t>25121</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>+766</t>
+          <t>-781</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>24.3%</t>
         </is>
       </c>
       <c r="X31" t="n">
-        <v>709</v>
+        <v>-1435</v>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
@@ -4176,101 +4176,101 @@
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>93873</v>
+        <v>114372</v>
       </c>
       <c r="AA31" t="n">
-        <v>22349</v>
+        <v>15046</v>
       </c>
       <c r="AB31" t="n">
-        <v>-3641</v>
+        <v>-6514</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>58111</t>
+          <t>64709</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-476</t>
+          <t>+2207</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>61.2%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="AF31" t="n">
-        <v>47</v>
+        <v>6598</v>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>35762</t>
+          <t>49663</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>+3165</t>
+          <t>+8721</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>37.7%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>4501</v>
+        <v>13901</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>66864</v>
+        <v>62492</v>
       </c>
       <c r="C32" t="n">
-        <v>-22732</v>
+        <v>-22752</v>
       </c>
       <c r="D32" t="n">
-        <v>-1087</v>
+        <v>-1174</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>22066</t>
+          <t>19870</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-2419</t>
+          <t>-1214</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23.5%</t>
+          <t>19.8%</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-3111</v>
+        <v>-2196</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>44798</t>
+          <t>42622</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-1332</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>47.7%</t>
+          <t>42.4%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>-382</v>
+        <v>-2176</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -4278,49 +4278,49 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>44063</v>
+        <v>44420</v>
       </c>
       <c r="O32" t="n">
-        <v>-7517</v>
+        <v>-7384</v>
       </c>
       <c r="P32" t="n">
-        <v>1100</v>
+        <v>1416</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>18273</t>
+          <t>18518</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>+1043</t>
+          <t>+762</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>19.5%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-296</v>
+        <v>245</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>25790</t>
+          <t>25902</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-654</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>25.8%</t>
         </is>
       </c>
       <c r="X32" t="n">
-        <v>-62</v>
+        <v>112</v>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
@@ -4328,101 +4328,101 @@
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>91184</v>
+        <v>103444</v>
       </c>
       <c r="AA32" t="n">
-        <v>25990</v>
+        <v>21560</v>
       </c>
       <c r="AB32" t="n">
-        <v>-813</v>
+        <v>-789</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>58587</t>
+          <t>62502</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>+523</t>
+          <t>+4391</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>62.4%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="AF32" t="n">
-        <v>1874</v>
+        <v>3915</v>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>32597</t>
+          <t>40942</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>+1336</t>
+          <t>+5180</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>34.7%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>767</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70615</v>
+        <v>63746</v>
       </c>
       <c r="C33" t="n">
-        <v>-21645</v>
+        <v>-21578</v>
       </c>
       <c r="D33" t="n">
-        <v>-1642</v>
+        <v>1154</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>24485</t>
+          <t>21084</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-692</t>
+          <t>-982</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25.4%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-1448</v>
+        <v>-3401</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>46130</t>
+          <t>42662</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>+950</t>
+          <t>-2136</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>44.9%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>-794</v>
+        <v>-3468</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -4430,49 +4430,49 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>43077</v>
+        <v>44312</v>
       </c>
       <c r="O33" t="n">
-        <v>-8617</v>
+        <v>-8800</v>
       </c>
       <c r="P33" t="n">
-        <v>-1334</v>
+        <v>-1283</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>17230</t>
+          <t>17756</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-1339</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>18.7%</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>-3948</v>
+        <v>526</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>25847</t>
+          <t>26556</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>+766</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>26.9%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="X33" t="n">
-        <v>-7</v>
+        <v>709</v>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
@@ -4480,101 +4480,101 @@
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>89325</v>
+        <v>93873</v>
       </c>
       <c r="AA33" t="n">
-        <v>26803</v>
+        <v>22349</v>
       </c>
       <c r="AB33" t="n">
-        <v>1920</v>
+        <v>-3641</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>58064</t>
+          <t>58111</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>+1351</t>
+          <t>-476</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>60.4%</t>
+          <t>61.2%</t>
         </is>
       </c>
       <c r="AF33" t="n">
-        <v>-247</v>
+        <v>47</v>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>31261</t>
+          <t>35762</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>-569</t>
+          <t>+3165</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>37.7%</t>
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>-552</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-05-09</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70357</v>
+        <v>66864</v>
       </c>
       <c r="C34" t="n">
-        <v>-20003</v>
+        <v>-22732</v>
       </c>
       <c r="D34" t="n">
-        <v>988</v>
+        <v>-1087</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25177</t>
+          <t>22066</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-756</t>
+          <t>-2419</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26.8%</t>
+          <t>23.5%</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2348</v>
+        <v>-3111</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>45180</t>
+          <t>44798</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-1744</t>
+          <t>-1332</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>48.2%</t>
+          <t>47.7%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>-3322</v>
+        <v>-382</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -4582,49 +4582,49 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>44421</v>
+        <v>44063</v>
       </c>
       <c r="O34" t="n">
-        <v>-7283</v>
+        <v>-7517</v>
       </c>
       <c r="P34" t="n">
-        <v>-2607</v>
+        <v>1100</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>18569</t>
+          <t>18273</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-2609</t>
+          <t>+1043</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>19.5%</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>-1972</v>
+        <v>-296</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>25852</t>
+          <t>25790</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-57</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>27.6%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="X34" t="n">
-        <v>-2799</v>
+        <v>-62</v>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
@@ -4632,101 +4632,101 @@
         </is>
       </c>
       <c r="Z34" t="n">
-        <v>88543</v>
+        <v>91184</v>
       </c>
       <c r="AA34" t="n">
-        <v>24883</v>
+        <v>25990</v>
       </c>
       <c r="AB34" t="n">
-        <v>-1615</v>
+        <v>-813</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>56713</t>
+          <t>58587</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>-1598</t>
+          <t>+523</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>60.4%</t>
+          <t>62.4%</t>
         </is>
       </c>
       <c r="AF34" t="n">
-        <v>-6568</v>
+        <v>1874</v>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>31830</t>
+          <t>32597</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>+17</t>
+          <t>+1336</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>33.9%</t>
+          <t>34.7%</t>
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>1149</v>
+        <v>767</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72857</v>
+        <v>70615</v>
       </c>
       <c r="C35" t="n">
-        <v>-20991</v>
+        <v>-21645</v>
       </c>
       <c r="D35" t="n">
-        <v>4682</v>
+        <v>-1642</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>25933</t>
+          <t>24485</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>+3104</t>
+          <t>-692</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26.7%</t>
+          <t>25.4%</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7037</v>
+        <v>-1448</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>46924</t>
+          <t>46130</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-1578</t>
+          <t>+950</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>47.9%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3631</v>
+        <v>-794</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -4734,49 +4734,49 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>47032</v>
+        <v>43077</v>
       </c>
       <c r="O35" t="n">
-        <v>-4676</v>
+        <v>-8617</v>
       </c>
       <c r="P35" t="n">
-        <v>3434</v>
+        <v>-1334</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21178</t>
+          <t>17230</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>+637</t>
+          <t>-1339</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>21.8%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2839</v>
+        <v>-3948</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>25854</t>
+          <t>25847</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-2797</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>26.6%</t>
+          <t>26.9%</t>
         </is>
       </c>
       <c r="X35" t="n">
-        <v>597</v>
+        <v>-7</v>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
@@ -4784,101 +4784,101 @@
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>90124</v>
+        <v>89325</v>
       </c>
       <c r="AA35" t="n">
-        <v>26498</v>
+        <v>26803</v>
       </c>
       <c r="AB35" t="n">
-        <v>-6102</v>
+        <v>1920</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>58311</t>
+          <t>58064</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-4970</t>
+          <t>+1351</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>60.1%</t>
+          <t>60.4%</t>
         </is>
       </c>
       <c r="AF35" t="n">
-        <v>-5994</v>
+        <v>-247</v>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>31813</t>
+          <t>31261</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>+1132</t>
+          <t>-569</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="AJ35" t="n">
-        <v>-3147</v>
+        <v>-552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-05-09</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>71331</v>
+        <v>70357</v>
       </c>
       <c r="C36" t="n">
-        <v>-25673</v>
+        <v>-20003</v>
       </c>
       <c r="D36" t="n">
-        <v>-1276</v>
+        <v>988</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22829</t>
+          <t>25177</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>+3933</t>
+          <t>-756</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23.0%</t>
+          <t>26.8%</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5419</v>
+        <v>2348</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>48502</t>
+          <t>45180</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>+5209</t>
+          <t>-1744</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>48.9%</t>
+          <t>48.2%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>9446</v>
+        <v>-3322</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -4886,49 +4886,49 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>49192</v>
+        <v>44421</v>
       </c>
       <c r="O36" t="n">
-        <v>-8110</v>
+        <v>-7283</v>
       </c>
       <c r="P36" t="n">
-        <v>-1192</v>
+        <v>-2607</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>20541</t>
+          <t>18569</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>+2202</t>
+          <t>-2609</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>19.8%</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3086</v>
+        <v>-1972</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>28651</t>
+          <t>25852</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>+3394</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>28.9%</t>
+          <t>27.6%</t>
         </is>
       </c>
       <c r="X36" t="n">
-        <v>4689</v>
+        <v>-2799</v>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
@@ -4936,101 +4936,101 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>93962</v>
+        <v>88543</v>
       </c>
       <c r="AA36" t="n">
-        <v>32600</v>
+        <v>24883</v>
       </c>
       <c r="AB36" t="n">
-        <v>3255</v>
+        <v>-1615</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>63281</t>
+          <t>56713</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-1024</t>
+          <t>-1598</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>60.4%</t>
         </is>
       </c>
       <c r="AF36" t="n">
-        <v>2516</v>
+        <v>-6568</v>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>30681</t>
+          <t>31830</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>-4279</t>
+          <t>+17</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>30.9%</t>
+          <t>33.9%</t>
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>-1999</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62189</v>
+        <v>72857</v>
       </c>
       <c r="C37" t="n">
-        <v>-24397</v>
+        <v>-20991</v>
       </c>
       <c r="D37" t="n">
-        <v>-2751</v>
+        <v>4682</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18896</t>
+          <t>25933</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>+1486</t>
+          <t>+3104</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19.7%</t>
+          <t>26.7%</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4594</v>
+        <v>7037</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>43293</t>
+          <t>46924</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>+4237</t>
+          <t>-1578</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>45.1%</t>
+          <t>48.3%</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5366</v>
+        <v>3631</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -5038,49 +5038,49 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>43596</v>
+        <v>47032</v>
       </c>
       <c r="O37" t="n">
-        <v>-6918</v>
+        <v>-4676</v>
       </c>
       <c r="P37" t="n">
-        <v>-411</v>
+        <v>3434</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>18339</t>
+          <t>21178</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>+884</t>
+          <t>+637</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>19.1%</t>
+          <t>21.8%</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2459</v>
+        <v>2839</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>25257</t>
+          <t>25854</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>+1295</t>
+          <t>-2797</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>26.3%</t>
+          <t>26.6%</t>
         </is>
       </c>
       <c r="X37" t="n">
-        <v>4654</v>
+        <v>597</v>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
@@ -5088,101 +5088,101 @@
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>99265</v>
+        <v>90124</v>
       </c>
       <c r="AA37" t="n">
-        <v>29345</v>
+        <v>26498</v>
       </c>
       <c r="AB37" t="n">
-        <v>1260</v>
+        <v>-6102</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>64305</t>
+          <t>58311</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>+3540</t>
+          <t>-4970</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>66.9%</t>
+          <t>60.1%</t>
         </is>
       </c>
       <c r="AF37" t="n">
-        <v>3991</v>
+        <v>-5994</v>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>34960</t>
+          <t>31813</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>+2280</t>
+          <t>+1132</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>32.8%</t>
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>7267</v>
+        <v>-3147</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>56466</v>
+        <v>71331</v>
       </c>
       <c r="C38" t="n">
-        <v>-21646</v>
+        <v>-25673</v>
       </c>
       <c r="D38" t="n">
-        <v>1979</v>
+        <v>-1276</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>17410</t>
+          <t>22829</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>+3108</t>
+          <t>+3933</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19.3%</t>
+          <t>23.0%</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5220</v>
+        <v>5419</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>39056</t>
+          <t>48502</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>+1129</t>
+          <t>+5209</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>48.9%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3297</v>
+        <v>9446</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -5190,49 +5190,49 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>41417</v>
+        <v>49192</v>
       </c>
       <c r="O38" t="n">
-        <v>-6507</v>
+        <v>-8110</v>
       </c>
       <c r="P38" t="n">
-        <v>-1784</v>
+        <v>-1192</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17455</t>
+          <t>20541</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>+1575</t>
+          <t>+2202</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>19.3%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4848</v>
+        <v>3086</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>23962</t>
+          <t>28651</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>+3359</t>
+          <t>+3394</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>26.5%</t>
+          <t>28.9%</t>
         </is>
       </c>
       <c r="X38" t="n">
-        <v>8820</v>
+        <v>4689</v>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
@@ -5240,101 +5240,101 @@
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>93445</v>
+        <v>93962</v>
       </c>
       <c r="AA38" t="n">
-        <v>28085</v>
+        <v>32600</v>
       </c>
       <c r="AB38" t="n">
-        <v>-4536</v>
+        <v>3255</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>60765</t>
+          <t>63281</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>+451</t>
+          <t>-1024</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>67.3%</t>
+          <t>63.8%</t>
         </is>
       </c>
       <c r="AF38" t="n">
-        <v>7261</v>
+        <v>2516</v>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>32680</t>
+          <t>30681</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>+4987</t>
+          <t>-4279</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>30.9%</t>
         </is>
       </c>
       <c r="AJ38" t="n">
-        <v>11746</v>
+        <v>-1999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>52229</v>
+        <v>62189</v>
       </c>
       <c r="C39" t="n">
-        <v>-23625</v>
+        <v>-24397</v>
       </c>
       <c r="D39" t="n">
-        <v>-56</v>
+        <v>-2751</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14302</t>
+          <t>18896</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>+2112</t>
+          <t>+1486</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16.2%</t>
+          <t>19.7%</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-1302</v>
+        <v>4594</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>37927</t>
+          <t>43293</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>+2168</t>
+          <t>+4237</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>43.0%</t>
+          <t>45.1%</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>175</v>
+        <v>5366</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -5342,49 +5342,49 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>36483</v>
+        <v>43596</v>
       </c>
       <c r="O39" t="n">
-        <v>-4723</v>
+        <v>-6918</v>
       </c>
       <c r="P39" t="n">
-        <v>-2188</v>
+        <v>-411</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>15880</t>
+          <t>18339</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>+3273</t>
+          <t>+884</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>18.0%</t>
+          <t>19.1%</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>713</v>
+        <v>2459</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20603</t>
+          <t>25257</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>+5461</t>
+          <t>+1295</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>23.3%</t>
+          <t>26.3%</t>
         </is>
       </c>
       <c r="X39" t="n">
-        <v>-149</v>
+        <v>4654</v>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
@@ -5392,101 +5392,101 @@
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>88007</v>
+        <v>99265</v>
       </c>
       <c r="AA39" t="n">
-        <v>32621</v>
+        <v>29345</v>
       </c>
       <c r="AB39" t="n">
-        <v>51</v>
+        <v>1260</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>60314</t>
+          <t>64305</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>+6810</t>
+          <t>+3540</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>68.3%</t>
+          <t>66.9%</t>
         </is>
       </c>
       <c r="AF39" t="n">
-        <v>5153</v>
+        <v>3991</v>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>27693</t>
+          <t>34960</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>+6759</t>
+          <t>+2280</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>31.4%</t>
+          <t>36.4%</t>
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>2595</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47949</v>
+        <v>56466</v>
       </c>
       <c r="C40" t="n">
-        <v>-23569</v>
+        <v>-21646</v>
       </c>
       <c r="D40" t="n">
-        <v>-1421</v>
+        <v>1979</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12190</t>
+          <t>17410</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-3414</t>
+          <t>+3108</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16.0%</t>
+          <t>19.3%</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-8006</v>
+        <v>5220</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>35759</t>
+          <t>39056</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-1993</t>
+          <t>+1129</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>43.3%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>-4517</v>
+        <v>3297</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -5494,49 +5494,49 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>27749</v>
+        <v>41417</v>
       </c>
       <c r="O40" t="n">
-        <v>-2535</v>
+        <v>-6507</v>
       </c>
       <c r="P40" t="n">
-        <v>3050</v>
+        <v>-1784</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>12607</t>
+          <t>17455</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-2560</t>
+          <t>+1575</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>19.3%</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>-4291</v>
+        <v>4848</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>15142</t>
+          <t>23962</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-5610</t>
+          <t>+3359</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>26.5%</t>
         </is>
       </c>
       <c r="X40" t="n">
-        <v>-3831</v>
+        <v>8820</v>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
@@ -5544,101 +5544,101 @@
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>74438</v>
+        <v>93445</v>
       </c>
       <c r="AA40" t="n">
-        <v>32570</v>
+        <v>28085</v>
       </c>
       <c r="AB40" t="n">
-        <v>2507</v>
+        <v>-4536</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>53504</t>
+          <t>60765</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-1657</t>
+          <t>+451</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>70.1%</t>
+          <t>67.3%</t>
         </is>
       </c>
       <c r="AF40" t="n">
-        <v>-13948</v>
+        <v>7261</v>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>20934</t>
+          <t>32680</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>-4164</t>
+          <t>+4987</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>27.4%</t>
+          <t>36.2%</t>
         </is>
       </c>
       <c r="AJ40" t="n">
-        <v>-19995</v>
+        <v>11746</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2023-03-21</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53356</v>
+        <v>52229</v>
       </c>
       <c r="C41" t="n">
-        <v>-22148</v>
+        <v>-23625</v>
       </c>
       <c r="D41" t="n">
-        <v>-2068</v>
+        <v>-56</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15604</t>
+          <t>14302</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-4592</t>
+          <t>+2112</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19.1%</t>
+          <t>16.2%</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-11580</v>
+        <v>-1302</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>37752</t>
+          <t>37927</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-2524</t>
+          <t>+2168</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>43.0%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>-2137</v>
+        <v>175</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -5646,49 +5646,49 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>35919</v>
+        <v>36483</v>
       </c>
       <c r="O41" t="n">
-        <v>-5585</v>
+        <v>-4723</v>
       </c>
       <c r="P41" t="n">
-        <v>-3510</v>
+        <v>-2188</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>15167</t>
+          <t>15880</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-1731</t>
+          <t>+3273</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>-8993</v>
+        <v>713</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>20752</t>
+          <t>20603</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>+1779</t>
+          <t>+5461</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>25.4%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="X41" t="n">
-        <v>4139</v>
+        <v>-149</v>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
@@ -5696,101 +5696,101 @@
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>80259</v>
+        <v>88007</v>
       </c>
       <c r="AA41" t="n">
-        <v>30063</v>
+        <v>32621</v>
       </c>
       <c r="AB41" t="n">
-        <v>3540</v>
+        <v>51</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>55161</t>
+          <t>60314</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-12291</t>
+          <t>+6810</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>67.5%</t>
+          <t>68.3%</t>
         </is>
       </c>
       <c r="AF41" t="n">
-        <v>6482</v>
+        <v>5153</v>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>25098</t>
+          <t>27693</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>-15831</t>
+          <t>+6759</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>31.4%</t>
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>-5973</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023-03-14</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>60472</v>
+        <v>47949</v>
       </c>
       <c r="C42" t="n">
-        <v>-20080</v>
+        <v>-23569</v>
       </c>
       <c r="D42" t="n">
-        <v>-7375</v>
+        <v>-1421</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>20196</t>
+          <t>12190</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-6988</t>
+          <t>-3414</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19.4%</t>
+          <t>16.0%</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-5420</v>
+        <v>-8006</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>40276</t>
+          <t>35759</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>+387</t>
+          <t>-1993</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>38.6%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>-1345</v>
+        <v>-4517</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -5798,49 +5798,49 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>35871</v>
+        <v>27749</v>
       </c>
       <c r="O42" t="n">
-        <v>-2075</v>
+        <v>-2535</v>
       </c>
       <c r="P42" t="n">
-        <v>-9622</v>
+        <v>3050</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>16898</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-7262</t>
+          <t>-2560</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>16.2%</t>
+          <t>16.5%</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>-8193</v>
+        <v>-4291</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>18973</t>
+          <t>15142</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>+2360</t>
+          <t>-5610</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>19.8%</t>
         </is>
       </c>
       <c r="X42" t="n">
-        <v>571</v>
+        <v>-3831</v>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
@@ -5848,101 +5848,101 @@
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>108381</v>
+        <v>74438</v>
       </c>
       <c r="AA42" t="n">
-        <v>26523</v>
+        <v>32570</v>
       </c>
       <c r="AB42" t="n">
-        <v>8915</v>
+        <v>2507</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>67452</t>
+          <t>53504</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>+18773</t>
+          <t>-1657</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>64.7%</t>
+          <t>70.1%</t>
         </is>
       </c>
       <c r="AF42" t="n">
-        <v>20272</v>
+        <v>-13948</v>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>40929</t>
+          <t>20934</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>+9858</t>
+          <t>-4164</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>39.3%</t>
+          <t>27.4%</t>
         </is>
       </c>
       <c r="AJ42" t="n">
-        <v>11151</v>
+        <v>-19995</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-21</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67073</v>
+        <v>53356</v>
       </c>
       <c r="C43" t="n">
-        <v>-12705</v>
+        <v>-22148</v>
       </c>
       <c r="D43" t="n">
-        <v>3300</v>
+        <v>-2068</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>27184</t>
+          <t>15604</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>+1568</t>
+          <t>-4592</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30.4%</t>
+          <t>19.1%</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-160</v>
+        <v>-11580</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>39889</t>
+          <t>37752</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-1732</t>
+          <t>-2524</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>-3700</v>
+        <v>-2137</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -5950,49 +5950,49 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>40773</v>
+        <v>35919</v>
       </c>
       <c r="O43" t="n">
-        <v>7547</v>
+        <v>-5585</v>
       </c>
       <c r="P43" t="n">
-        <v>858</v>
+        <v>-3510</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>24160</t>
+          <t>15167</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-931</t>
+          <t>-1731</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>-2847</v>
+        <v>-8993</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16613</t>
+          <t>20752</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>-1789</t>
+          <t>+1779</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>25.4%</t>
         </is>
       </c>
       <c r="X43" t="n">
-        <v>-1560</v>
+        <v>4139</v>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
@@ -6000,101 +6000,101 @@
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>79750</v>
+        <v>80259</v>
       </c>
       <c r="AA43" t="n">
-        <v>17608</v>
+        <v>30063</v>
       </c>
       <c r="AB43" t="n">
-        <v>206</v>
+        <v>3540</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>48679</t>
+          <t>55161</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>+1499</t>
+          <t>-12291</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>54.4%</t>
+          <t>67.5%</t>
         </is>
       </c>
       <c r="AF43" t="n">
-        <v>2697</v>
+        <v>6482</v>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>31071</t>
+          <t>25098</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>+1293</t>
+          <t>-15831</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>34.7%</t>
+          <t>30.7%</t>
         </is>
       </c>
       <c r="AJ43" t="n">
-        <v>2683</v>
+        <v>-5973</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67237</v>
+        <v>60472</v>
       </c>
       <c r="C44" t="n">
-        <v>-16005</v>
+        <v>-20080</v>
       </c>
       <c r="D44" t="n">
-        <v>240</v>
+        <v>-7375</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>25616</t>
+          <t>20196</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-1728</t>
+          <t>-6988</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>28.5%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-2895</v>
+        <v>-5420</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>41621</t>
+          <t>40276</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-1968</t>
+          <t>+387</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>46.3%</t>
+          <t>38.6%</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6372</v>
+        <v>-1345</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -6102,49 +6102,49 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>43493</v>
+        <v>35871</v>
       </c>
       <c r="O44" t="n">
-        <v>6689</v>
+        <v>-2075</v>
       </c>
       <c r="P44" t="n">
-        <v>-2145</v>
+        <v>-9622</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>25091</t>
+          <t>16898</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-1916</t>
+          <t>-7262</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>27.9%</t>
+          <t>16.2%</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>490</v>
+        <v>-8193</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>18402</t>
+          <t>18973</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>+229</t>
+          <t>+2360</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>20.5%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="X44" t="n">
-        <v>2696</v>
+        <v>571</v>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
@@ -6152,101 +6152,101 @@
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>76958</v>
+        <v>108381</v>
       </c>
       <c r="AA44" t="n">
-        <v>17402</v>
+        <v>26523</v>
       </c>
       <c r="AB44" t="n">
-        <v>-192</v>
+        <v>8915</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>47180</t>
+          <t>67452</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>+1198</t>
+          <t>+18773</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>52.5%</t>
+          <t>64.7%</t>
         </is>
       </c>
       <c r="AF44" t="n">
-        <v>4591</v>
+        <v>20272</v>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>29778</t>
+          <t>40929</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>+1390</t>
+          <t>+9858</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>33.1%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="AJ44" t="n">
-        <v>-2686</v>
+        <v>11151</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>70933</v>
+        <v>67073</v>
       </c>
       <c r="C45" t="n">
-        <v>-16245</v>
+        <v>-12705</v>
       </c>
       <c r="D45" t="n">
-        <v>-9507</v>
+        <v>3300</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>27344</t>
+          <t>27184</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-1167</t>
+          <t>+1568</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>30.4%</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>210</v>
+        <v>-160</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>43589</t>
+          <t>39889</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>+8340</t>
+          <t>-1732</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>47.7%</t>
+          <t>44.6%</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>10172</v>
+        <v>-3700</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -6254,49 +6254,49 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>45180</v>
+        <v>40773</v>
       </c>
       <c r="O45" t="n">
-        <v>8834</v>
+        <v>7547</v>
       </c>
       <c r="P45" t="n">
-        <v>-61</v>
+        <v>858</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>27007</t>
+          <t>24160</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>+2406</t>
+          <t>-931</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>29.6%</t>
+          <t>27.0%</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3243</v>
+        <v>-2847</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>18173</t>
+          <t>16613</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>+2467</t>
+          <t>-1789</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>19.9%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="X45" t="n">
-        <v>3290</v>
+        <v>-1560</v>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
@@ -6304,101 +6304,101 @@
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>74370</v>
+        <v>79750</v>
       </c>
       <c r="AA45" t="n">
-        <v>17594</v>
+        <v>17608</v>
       </c>
       <c r="AB45" t="n">
-        <v>7469</v>
+        <v>206</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>45982</t>
+          <t>48679</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>+3393</t>
+          <t>+1499</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>50.4%</t>
+          <t>54.4%</t>
         </is>
       </c>
       <c r="AF45" t="n">
-        <v>2497</v>
+        <v>2697</v>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>28388</t>
+          <t>31071</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>-4076</t>
+          <t>+1293</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>31.1%</t>
+          <t>34.7%</t>
         </is>
       </c>
       <c r="AJ45" t="n">
-        <v>-6743</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63760</v>
+        <v>67237</v>
       </c>
       <c r="C46" t="n">
-        <v>-6738</v>
+        <v>-16005</v>
       </c>
       <c r="D46" t="n">
-        <v>-455</v>
+        <v>240</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>28511</t>
+          <t>25616</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>+1377</t>
+          <t>-1728</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>32.6%</t>
+          <t>28.5%</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>7172</v>
+        <v>-2895</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>35249</t>
+          <t>41621</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>+1832</t>
+          <t>-1968</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>40.3%</t>
+          <t>46.3%</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4482</v>
+        <v>6372</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -6406,49 +6406,49 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>40307</v>
+        <v>43493</v>
       </c>
       <c r="O46" t="n">
-        <v>8895</v>
+        <v>6689</v>
       </c>
       <c r="P46" t="n">
-        <v>14</v>
+        <v>-2145</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>24601</t>
+          <t>25091</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>+837</t>
+          <t>-1916</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>28.1%</t>
+          <t>27.9%</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1505</v>
+        <v>490</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15706</t>
+          <t>18402</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>+823</t>
+          <t>+229</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>18.0%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="X46" t="n">
-        <v>1971</v>
+        <v>2696</v>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
@@ -6456,101 +6456,101 @@
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>75053</v>
+        <v>76958</v>
       </c>
       <c r="AA46" t="n">
-        <v>10125</v>
+        <v>17402</v>
       </c>
       <c r="AB46" t="n">
-        <v>1771</v>
+        <v>-192</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>42589</t>
+          <t>47180</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>-896</t>
+          <t>+1198</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>48.7%</t>
+          <t>52.5%</t>
         </is>
       </c>
       <c r="AF46" t="n">
-        <v>715</v>
+        <v>4591</v>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>32464</t>
+          <t>29778</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>-2667</t>
+          <t>+1390</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>37.1%</t>
+          <t>33.1%</t>
         </is>
       </c>
       <c r="AJ46" t="n">
-        <v>2667</v>
+        <v>-2686</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>60551</v>
+        <v>70933</v>
       </c>
       <c r="C47" t="n">
-        <v>-6283</v>
+        <v>-16245</v>
       </c>
       <c r="D47" t="n">
-        <v>3145</v>
+        <v>-9507</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>27134</t>
+          <t>27344</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>+5795</t>
+          <t>-1167</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31.4%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6028</v>
+        <v>210</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>33417</t>
+          <t>43589</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>+2650</t>
+          <t>+8340</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>38.7%</t>
+          <t>47.7%</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2345</v>
+        <v>10172</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -6558,49 +6558,49 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>38647</v>
+        <v>45180</v>
       </c>
       <c r="O47" t="n">
-        <v>8881</v>
+        <v>8834</v>
       </c>
       <c r="P47" t="n">
-        <v>-480</v>
+        <v>-61</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>23764</t>
+          <t>27007</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>+668</t>
+          <t>+2406</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1181</v>
+        <v>3243</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>14883</t>
+          <t>18173</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>+1148</t>
+          <t>+2467</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>19.9%</t>
         </is>
       </c>
       <c r="X47" t="n">
-        <v>2759</v>
+        <v>3290</v>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
@@ -6608,22 +6608,22 @@
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>78616</v>
+        <v>74370</v>
       </c>
       <c r="AA47" t="n">
-        <v>8354</v>
+        <v>17594</v>
       </c>
       <c r="AB47" t="n">
-        <v>-3723</v>
+        <v>7469</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>43485</t>
+          <t>45982</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>+1611</t>
+          <t>+3393</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
@@ -6632,77 +6632,77 @@
         </is>
       </c>
       <c r="AF47" t="n">
-        <v>3985</v>
+        <v>2497</v>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>35131</t>
+          <t>28388</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>+5334</t>
+          <t>-4076</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>31.1%</t>
         </is>
       </c>
       <c r="AJ47" t="n">
-        <v>7858</v>
+        <v>-6743</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>52106</v>
+        <v>63760</v>
       </c>
       <c r="C48" t="n">
-        <v>-9428</v>
+        <v>-6738</v>
       </c>
       <c r="D48" t="n">
-        <v>538</v>
+        <v>-455</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>21339</t>
+          <t>28511</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>+233</t>
+          <t>+1377</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26.5%</t>
+          <t>32.6%</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-4508</v>
+        <v>7172</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>30767</t>
+          <t>35249</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-305</t>
+          <t>+1832</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>38.3%</t>
+          <t>40.3%</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>-5693</v>
+        <v>4482</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -6710,49 +6710,49 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>36831</v>
+        <v>40307</v>
       </c>
       <c r="O48" t="n">
-        <v>9361</v>
+        <v>8895</v>
       </c>
       <c r="P48" t="n">
-        <v>-1098</v>
+        <v>14</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23096</t>
+          <t>24601</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>+513</t>
+          <t>+837</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>28.7%</t>
+          <t>28.1%</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>-6117</v>
+        <v>1505</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>13735</t>
+          <t>15706</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>+1611</t>
+          <t>+823</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>17.1%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="X48" t="n">
-        <v>2203</v>
+        <v>1971</v>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
@@ -6760,40 +6760,40 @@
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>71671</v>
+        <v>75053</v>
       </c>
       <c r="AA48" t="n">
-        <v>12077</v>
+        <v>10125</v>
       </c>
       <c r="AB48" t="n">
-        <v>-150</v>
+        <v>1771</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>41874</t>
+          <t>42589</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>+2374</t>
+          <t>-896</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>52.1%</t>
+          <t>48.7%</t>
         </is>
       </c>
       <c r="AF48" t="n">
-        <v>1926</v>
+        <v>715</v>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>29797</t>
+          <t>32464</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>+2524</t>
+          <t>-2667</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
@@ -6802,59 +6802,59 @@
         </is>
       </c>
       <c r="AJ48" t="n">
-        <v>2139</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>52178</v>
+        <v>60551</v>
       </c>
       <c r="C49" t="n">
-        <v>-9966</v>
+        <v>-6283</v>
       </c>
       <c r="D49" t="n">
-        <v>647</v>
+        <v>3145</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>21106</t>
+          <t>27134</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-4741</t>
+          <t>+5795</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27.2%</t>
+          <t>31.4%</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-4837</v>
+        <v>6028</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>31072</t>
+          <t>33417</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-5388</t>
+          <t>+2650</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>-4013</v>
+        <v>2345</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -6862,49 +6862,49 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>34707</v>
+        <v>38647</v>
       </c>
       <c r="O49" t="n">
-        <v>10459</v>
+        <v>8881</v>
       </c>
       <c r="P49" t="n">
-        <v>-7222</v>
+        <v>-480</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>22583</t>
+          <t>23764</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-6630</t>
+          <t>+668</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>29.1%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>-4672</v>
+        <v>1181</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>12124</t>
+          <t>14883</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>+592</t>
+          <t>+1148</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>15.6%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="X49" t="n">
-        <v>2703</v>
+        <v>2759</v>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
@@ -6912,101 +6912,101 @@
         </is>
       </c>
       <c r="Z49" t="n">
-        <v>66773</v>
+        <v>78616</v>
       </c>
       <c r="AA49" t="n">
-        <v>12227</v>
+        <v>8354</v>
       </c>
       <c r="AB49" t="n">
-        <v>-63</v>
+        <v>-3723</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>39500</t>
+          <t>43485</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>+1611</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>50.9%</t>
+          <t>50.4%</t>
         </is>
       </c>
       <c r="AF49" t="n">
-        <v>2380</v>
+        <v>3985</v>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>27273</t>
+          <t>35131</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>+5334</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>35.1%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="AJ49" t="n">
-        <v>2800</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>62307</v>
+        <v>52106</v>
       </c>
       <c r="C50" t="n">
-        <v>-10613</v>
+        <v>-9428</v>
       </c>
       <c r="D50" t="n">
-        <v>-1471</v>
+        <v>538</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>25847</t>
+          <t>21339</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-96</t>
+          <t>+233</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>26.5%</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>599</v>
+        <v>-4508</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>36460</t>
+          <t>30767</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>+1375</t>
+          <t>-305</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>44.1%</t>
+          <t>38.3%</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>-679</v>
+        <v>-5693</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -7014,49 +7014,49 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>40745</v>
+        <v>36831</v>
       </c>
       <c r="O50" t="n">
-        <v>17681</v>
+        <v>9361</v>
       </c>
       <c r="P50" t="n">
-        <v>-153</v>
+        <v>-1098</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>29213</t>
+          <t>23096</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>+1958</t>
+          <t>+513</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>28.7%</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1341</v>
+        <v>-6117</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>11532</t>
+          <t>13735</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>+2111</t>
+          <t>+1611</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>14.0%</t>
+          <t>17.1%</t>
         </is>
       </c>
       <c r="X50" t="n">
-        <v>1888</v>
+        <v>2203</v>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
@@ -7064,101 +7064,101 @@
         </is>
       </c>
       <c r="Z50" t="n">
-        <v>67606</v>
+        <v>71671</v>
       </c>
       <c r="AA50" t="n">
-        <v>12290</v>
+        <v>12077</v>
       </c>
       <c r="AB50" t="n">
-        <v>-357</v>
+        <v>-150</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>39948</t>
+          <t>41874</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>+2828</t>
+          <t>+2374</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>52.1%</t>
         </is>
       </c>
       <c r="AF50" t="n">
-        <v>-952</v>
+        <v>1926</v>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>27658</t>
+          <t>29797</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>+3185</t>
+          <t>+2524</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>33.5%</t>
+          <t>37.1%</t>
         </is>
       </c>
       <c r="AJ50" t="n">
-        <v>2797</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>61028</v>
+        <v>52178</v>
       </c>
       <c r="C51" t="n">
-        <v>-9142</v>
+        <v>-9966</v>
       </c>
       <c r="D51" t="n">
-        <v>2749</v>
+        <v>647</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>25943</t>
+          <t>21106</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>+695</t>
+          <t>-4741</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>33.4%</t>
+          <t>27.2%</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2470</v>
+        <v>-4837</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>35085</t>
+          <t>31072</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-2054</t>
+          <t>-5388</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>45.2%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>-433</v>
+        <v>-4013</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -7166,250 +7166,554 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>36676</v>
+        <v>34707</v>
       </c>
       <c r="O51" t="n">
-        <v>17834</v>
+        <v>10459</v>
       </c>
       <c r="P51" t="n">
-        <v>-394</v>
+        <v>-7222</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27255</t>
+          <t>22583</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-617</t>
+          <t>-6630</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
+          <t>29.1%</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>-4672</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>12124</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>+592</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>15.6%</t>
+        </is>
+      </c>
+      <c r="X51" t="n">
+        <v>2703</v>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="Z51" t="n">
+        <v>66773</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>12227</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-63</v>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>39500</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>-448</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>50.9%</t>
+        </is>
+      </c>
+      <c r="AF51" t="n">
+        <v>2380</v>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>27273</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>-385</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
           <t>35.1%</t>
         </is>
       </c>
-      <c r="T51" t="n">
-        <v>1997</v>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>9421</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>-223</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>12.1%</t>
-        </is>
-      </c>
-      <c r="X51" t="n">
-        <v>1289</v>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>LINE</t>
-        </is>
-      </c>
-      <c r="Z51" t="n">
-        <v>61593</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>12647</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>-3392</v>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>37120</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>-3780</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>47.8%</t>
-        </is>
-      </c>
-      <c r="AF51" t="n">
-        <v>-523</v>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>24473</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>-388</t>
-        </is>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>31.5%</t>
-        </is>
-      </c>
       <c r="AJ51" t="n">
-        <v>1787</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>62307</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-10613</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1471</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25847</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>31.3%</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>599</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>36460</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>+1375</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>44.1%</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>-679</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>40745</v>
+      </c>
+      <c r="O52" t="n">
+        <v>17681</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-153</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>29213</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>+1958</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>35.3%</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>1341</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>11532</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>+2111</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>14.0%</t>
+        </is>
+      </c>
+      <c r="X52" t="n">
+        <v>1888</v>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="Z52" t="n">
+        <v>67606</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>12290</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-357</v>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>39948</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>+2828</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>48.3%</t>
+        </is>
+      </c>
+      <c r="AF52" t="n">
+        <v>-952</v>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>27658</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>+3185</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>33.5%</t>
+        </is>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-01-10</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>61028</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-9142</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2749</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25943</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>+695</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>33.4%</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2470</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>35085</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-2054</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>45.2%</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>-433</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>36676</v>
+      </c>
+      <c r="O53" t="n">
+        <v>17834</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-394</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>27255</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>-617</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>35.1%</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1997</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>9421</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>-223</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>12.1%</t>
+        </is>
+      </c>
+      <c r="X53" t="n">
+        <v>1289</v>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="Z53" t="n">
+        <v>61593</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>12647</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-3392</v>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>37120</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>-3780</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>47.8%</t>
+        </is>
+      </c>
+      <c r="AF53" t="n">
+        <v>-523</v>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>24473</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>-388</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>31.5%</t>
+        </is>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B54" t="n">
         <v>62387</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C54" t="n">
         <v>-11891</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D54" t="n">
         <v>0</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>25248</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>+1775</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>31.7%</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>37139</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>+1621</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>46.6%</t>
         </is>
       </c>
-      <c r="L52" t="n">
+      <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>LINE</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>37516</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O54" t="n">
         <v>18228</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P54" t="n">
         <v>0</v>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>27872</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>+2614</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>35.0%</t>
         </is>
       </c>
-      <c r="T52" t="n">
+      <c r="T54" t="n">
         <v>0</v>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>9644</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>+1512</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>12.1%</t>
         </is>
       </c>
-      <c r="X52" t="n">
+      <c r="X54" t="n">
         <v>0</v>
       </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>LINE</t>
-        </is>
-      </c>
-      <c r="Z52" t="n">
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="Z54" t="n">
         <v>65761</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AA54" t="n">
         <v>16039</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AB54" t="n">
         <v>0</v>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AC54" t="inlineStr">
         <is>
           <t>40900</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AD54" t="inlineStr">
         <is>
           <t>+3257</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AE54" t="inlineStr">
         <is>
           <t>51.3%</t>
         </is>
       </c>
-      <c r="AF52" t="n">
+      <c r="AF54" t="n">
         <v>0</v>
       </c>
-      <c r="AG52" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>24861</t>
         </is>
       </c>
-      <c r="AH52" t="inlineStr">
+      <c r="AH54" t="inlineStr">
         <is>
           <t>+2175</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr">
+      <c r="AI54" t="inlineStr">
         <is>
           <t>31.2%</t>
         </is>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AJ54" t="n">
         <v>0</v>
       </c>
     </row>
